--- a/xlsx/FR/standard_win_lose_FR.xlsx
+++ b/xlsx/FR/standard_win_lose_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">High-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The middle class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those living in rural areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your household financially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.03464174170394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.160821567719911</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.379042373896161</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.22216474513522</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0762045323252345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0839718397919796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.49274841156562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.316213128274198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.332534212504974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.305408942679504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.519016397771689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.243468842361952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.167299563697763</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.245137389289403</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.38627183461737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.237140507911246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.0890189937853663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.109465538866649</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.166738001482512</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.193320447034839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.125229512821145</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.013942184567151</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0279793952652292</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0334256515878905</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0387942433430533</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/standard_win_lose_FR.xlsx
+++ b/xlsx/FR/standard_win_lose_FR.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03464174170394</v>
+        <v>0.0230208107141092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160821567719911</v>
+        <v>0.164545975954578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.379042373896161</v>
+        <v>0.37390310949756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22216474513522</v>
+        <v>0.20443133931025</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0762045323252345</v>
+        <v>0.0718270851022897</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0839718397919796</v>
+        <v>0.0762764441821923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49274841156562</v>
+        <v>0.466997066353163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.316213128274198</v>
+        <v>0.320636141428301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.332534212504974</v>
+        <v>0.336989864662914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.305408942679504</v>
+        <v>0.299399132403476</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.519016397771689</v>
+        <v>0.492283454009268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243468842361952</v>
+        <v>0.260093434848846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.167299563697763</v>
+        <v>0.170659666935694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.245137389289403</v>
+        <v>0.258722930565055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.38627183461737</v>
+        <v>0.378414117421672</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237140507911246</v>
+        <v>0.246517663199647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0890189937853663</v>
+        <v>0.0892823269626115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.109465538866649</v>
+        <v>0.101481077192042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.166738001482512</v>
+        <v>0.152081710391074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.193320447034839</v>
+        <v>0.197554945156415</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125229512821145</v>
+        <v>0.161901627894784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.013942184567151</v>
+        <v>0.0190811958808019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0279793952652292</v>
+        <v>0.033320004946403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0334256515878905</v>
+        <v>0.047774155070707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0387942433430533</v>
+        <v>0.0528047199161482</v>
       </c>
     </row>
   </sheetData>
